--- a/Taxonomy_RQ2.2_Optimization_methods.xlsx
+++ b/Taxonomy_RQ2.2_Optimization_methods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\CodeOpt-SLR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A77AE9C5-1D24-4BFA-80B0-507FFB09BFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BC65EF-E7B1-4B73-86E6-87143B9D5698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="18900" windowHeight="11770" xr2:uid="{039CE8D8-43D5-40DA-AD54-E4D3146FE744}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16300" xr2:uid="{039CE8D8-43D5-40DA-AD54-E4D3146FE744}"/>
   </bookViews>
   <sheets>
     <sheet name="CodeOptimization" sheetId="1" r:id="rId1"/>
@@ -116,9 +116,6 @@
     <t>\cite{gao2024searchbasedllmscodeoptimization, DBLP:journals/corr/abs-2306-17077, DBLP:conf/iclr/ShypulaMZ0GYHNR24, yao2024rtlrewritermethodologieslargemodels, xu2024optimizing}</t>
   </si>
   <si>
-    <t>RAG</t>
-  </si>
-  <si>
     <t>Limitation of one-step optimization (3), Limitation on localized code modifications (2), Reliance on human experts (2), Balancing correctness and performance (1), Complexity of code (1), Reliance on manually labeled data (1), Inefficiency of querying LMs (1), Hallucination Issues of LMs (1)</t>
   </si>
   <si>
@@ -212,9 +209,6 @@
     <t>Feedback-based iterative optimization</t>
   </si>
   <si>
-    <t>Model design</t>
-  </si>
-  <si>
     <t>Technique</t>
   </si>
   <si>
@@ -231,6 +225,12 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>Model-based</t>
+  </si>
+  <si>
+    <t>Retrieval-augmented generation</t>
   </si>
 </sst>
 </file>
@@ -274,10 +274,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C32D96-D3C2-4F63-8475-F51C97C08763}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -632,212 +632,212 @@
   <sheetData>
     <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2">
         <f>SUM(D2:D8)</f>
         <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1">
-        <f>LEN(E2)-LEN(SUBSTITUTE(E2, ",","")) + 1</f>
+        <f t="shared" ref="D2:D20" si="0">LEN(E2)-LEN(SUBSTITUTE(E2, ",","")) + 1</f>
         <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1">
-        <f>LEN(E3)-LEN(SUBSTITUTE(E3, ",","")) + 1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D4" s="1">
-        <f>LEN(E4)-LEN(SUBSTITUTE(E4, ",","")) + 1</f>
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1">
-        <f>LEN(E5)-LEN(SUBSTITUTE(E5, ",","")) + 1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="1">
-        <f>LEN(E6)-LEN(SUBSTITUTE(E6, ",","")) + 1</f>
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1">
-        <f>LEN(E7)-LEN(SUBSTITUTE(E7, ",","")) + 1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="D8" s="1">
-        <f>LEN(E8)-LEN(SUBSTITUTE(E8, ",","")) + 1</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2">
         <f>SUM(D9:D13)</f>
         <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" s="1">
-        <f>LEN(E9)-LEN(SUBSTITUTE(E9, ",","")) + 1</f>
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D10" s="1">
-        <f>LEN(E10)-LEN(SUBSTITUTE(E10, ",","")) + 1</f>
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1">
-        <f>LEN(E11)-LEN(SUBSTITUTE(E11, ",","")) + 1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1">
-        <f>LEN(E12)-LEN(SUBSTITUTE(E12, ",","")) + 1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -854,7 +854,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="1">
-        <f>LEN(E13)-LEN(SUBSTITUTE(E13, ",","")) + 1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -876,7 +876,7 @@
         <v>17</v>
       </c>
       <c r="D14" s="1">
-        <f>LEN(E14)-LEN(SUBSTITUTE(E14, ",","")) + 1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -893,7 +893,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="1">
-        <f>LEN(E15)-LEN(SUBSTITUTE(E15, ",","")) + 1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -903,14 +903,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="1">
-        <f>LEN(E16)-LEN(SUBSTITUTE(E16, ",","")) + 1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -927,7 +927,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="1">
-        <f>LEN(E17)-LEN(SUBSTITUTE(E17, ",","")) + 1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -944,7 +944,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="1">
-        <f>LEN(E18)-LEN(SUBSTITUTE(E18, ",","")) + 1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -961,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="1">
-        <f>LEN(E19)-LEN(SUBSTITUTE(E19, ",","")) + 1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <f>LEN(E20)-LEN(SUBSTITUTE(E20, ",","")) + 1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
